--- a/Luban/Datas/UISystem.xlsx
+++ b/Luban/Datas/UISystem.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\YuFramework\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71982472-043D-4108-971B-1D569BF9D02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2937C9D5-AE58-438C-8710-C693EF599A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UI" sheetId="1" r:id="rId1"/>
     <sheet name="HUD" sheetId="4" r:id="rId2"/>
     <sheet name="Camera" sheetId="2" r:id="rId3"/>
-    <sheet name="Prefab" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
   <si>
     <t>##var</t>
   </si>
@@ -109,12 +108,6 @@
   </si>
   <si>
     <t>视野</t>
-  </si>
-  <si>
-    <t>prefabPath</t>
-  </si>
-  <si>
-    <t>prefab名</t>
   </si>
   <si>
     <t>资源路径</t>
@@ -501,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -528,7 +521,7 @@
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -557,13 +550,13 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F3" s="2"/>
     </row>
@@ -583,16 +576,16 @@
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>13</v>
@@ -602,7 +595,7 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -621,16 +614,16 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>15</v>
@@ -640,7 +633,7 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -673,7 +666,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -723,7 +716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
@@ -785,54 +778,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
 </file>